--- a/temp_field.xlsx
+++ b/temp_field.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FangCloudSync\R_WD360\Project\soyplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A307B2-6790-4D2A-A8DA-9CB0A1A6EE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0C1380-362F-4DCA-B7A2-FF9D420CE505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3795" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -215,6 +215,14 @@
   </si>
   <si>
     <t>田间标识号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>former_fieldid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前田间识别号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -583,16 +591,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="2"/>
     <col min="4" max="4" width="28.08203125" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
@@ -627,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>50</v>
@@ -893,16 +901,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -910,7 +918,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
@@ -919,7 +927,7 @@
         <v>35</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -927,7 +935,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="5">
         <v>19</v>
@@ -936,7 +944,7 @@
         <v>35</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -944,7 +952,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="5">
         <v>20</v>
@@ -953,7 +961,7 @@
         <v>35</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -961,7 +969,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="5">
         <v>21</v>
@@ -970,7 +978,7 @@
         <v>35</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -978,7 +986,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="5">
         <v>22</v>
@@ -987,6 +995,23 @@
         <v>35</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="5">
+        <v>23</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>47</v>
       </c>
     </row>
